--- a/Arduino_serial_commands.xlsx
+++ b/Arduino_serial_commands.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\_GitHub_repo\DvG_Arduino_lock-in_amp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40DD43B5-DF9B-4EF6-9E6D-740422BD7DEE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09209FD2-8919-495D-8F8B-831CC24DAA60}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2856" yWindow="2724" windowWidth="18036" windowHeight="11976" xr2:uid="{6777AC39-1C16-4E22-9EAE-B600F00D5157}"/>
   </bookViews>
@@ -35,9 +35,6 @@
     <t>reply</t>
   </si>
   <si>
-    <t>ASCII [freq, offs, ampl]</t>
-  </si>
-  <si>
     <t>command</t>
   </si>
   <si>
@@ -100,24 +97,27 @@
 tri / ecg</t>
   </si>
   <si>
-    <t>ASCII [N_LUT, waveform, is_LUT_dirty]
+    <t>lut_ascii?</t>
+  </si>
+  <si>
+    <t>compute LUT</t>
+  </si>
+  <si>
+    <t>Remark</t>
+  </si>
+  <si>
+    <t>Convenience function for use in a serial terminal.</t>
+  </si>
+  <si>
+    <t>ASCII [N_LUT, is_LUT_dirty]
 BINARY [LUT[]]</t>
   </si>
   <si>
-    <t>lut_ascii?</t>
-  </si>
-  <si>
-    <t>ASCII [N_LUT, waveform, is_LUT_dirty]
+    <t>ASCII [N_LUT, is_LUT_dirty]
 ASCII [LUT[]]</t>
   </si>
   <si>
-    <t>compute LUT</t>
-  </si>
-  <si>
-    <t>Remark</t>
-  </si>
-  <si>
-    <t>Convenience function for use in a serial terminal.</t>
+    <t>ASCII [freq, offs, ampl, waveform, N_LUT]</t>
   </si>
 </sst>
 </file>
@@ -622,7 +622,7 @@
   <dimension ref="B1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -630,67 +630,67 @@
     <col min="1" max="1" width="4.44140625" customWidth="1"/>
     <col min="2" max="2" width="22.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="41.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:5" s="3" customFormat="1" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="2:5" s="3" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>4</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:5" s="3" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>4</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:5" s="3" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>4</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="6" spans="2:5" s="3" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>4</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="7" spans="2:5" s="3" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -700,13 +700,13 @@
     </row>
     <row r="8" spans="2:5" s="3" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9" spans="2:5" s="3" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -714,63 +714,63 @@
       <c r="C9" s="11"/>
       <c r="D9" s="6"/>
       <c r="E9" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="2:5" s="3" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="2:5" s="3" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="2:5" s="3" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="2:5" s="3" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="2:5" s="3" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -780,35 +780,35 @@
     </row>
     <row r="15" spans="2:5" s="3" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="2:5" s="3" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="2:4" s="3" customFormat="1" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="2:4" s="3" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
